--- a/data_year/zb/工业/按行业分外商及港澳台商投资工业企业主要经济指标(2000-2002)/流动资产合计.xlsx
+++ b/data_year/zb/工业/按行业分外商及港澳台商投资工业企业主要经济指标(2000-2002)/流动资产合计.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO4"/>
+  <dimension ref="B1:AO1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -635,377 +635,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>2000年</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>255.34607</v>
-      </c>
-      <c r="C2" t="n">
-        <v>995.28698</v>
-      </c>
-      <c r="D2" t="n">
-        <v>237.09503</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.1188</v>
-      </c>
-      <c r="F2" t="n">
-        <v>192.9035</v>
-      </c>
-      <c r="G2" t="n">
-        <v>649.42395</v>
-      </c>
-      <c r="H2" t="n">
-        <v>159.5775</v>
-      </c>
-      <c r="I2" t="n">
-        <v>289.86248</v>
-      </c>
-      <c r="J2" t="n">
-        <v>148.52442</v>
-      </c>
-      <c r="K2" t="n">
-        <v>453.63735</v>
-      </c>
-      <c r="L2" t="n">
-        <v>12849.54</v>
-      </c>
-      <c r="M2" t="n">
-        <v>97.2539</v>
-      </c>
-      <c r="N2" t="n">
-        <v>178.98035</v>
-      </c>
-      <c r="O2" t="n">
-        <v>509.63368</v>
-      </c>
-      <c r="P2" t="n">
-        <v>151.03784</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>2.10378</v>
-      </c>
-      <c r="R2" t="n">
-        <v>493.7828</v>
-      </c>
-      <c r="S2" t="n">
-        <v>121.16607</v>
-      </c>
-      <c r="T2" t="inlineStr"/>
-      <c r="U2" t="n">
-        <v>187.20935</v>
-      </c>
-      <c r="V2" t="n">
-        <v>6.40496</v>
-      </c>
-      <c r="W2" t="n">
-        <v>18.7406</v>
-      </c>
-      <c r="X2" t="n">
-        <v>5.70321</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>421.58182</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>2814.98778</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>917.43074</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>319.43267</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>61.39539</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>1.58438</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>610.22186</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>5.36127</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>383.22265</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>547.88374</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>461.66887</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>9.984540000000001</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>296.54237</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>360.07359</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>296.49257</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>187.43008</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>0.45205</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>2001年</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>292.32215</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1124.0149</v>
-      </c>
-      <c r="D3" t="n">
-        <v>254.86877</v>
-      </c>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="n">
-        <v>216.68503</v>
-      </c>
-      <c r="G3" t="n">
-        <v>737.34117</v>
-      </c>
-      <c r="H3" t="n">
-        <v>101.69377</v>
-      </c>
-      <c r="I3" t="n">
-        <v>318.91909</v>
-      </c>
-      <c r="J3" t="n">
-        <v>173.31228</v>
-      </c>
-      <c r="K3" t="n">
-        <v>522.27957</v>
-      </c>
-      <c r="L3" t="n">
-        <v>14029.75</v>
-      </c>
-      <c r="M3" t="n">
-        <v>111.19482</v>
-      </c>
-      <c r="N3" t="n">
-        <v>205.65397</v>
-      </c>
-      <c r="O3" t="n">
-        <v>577.98774</v>
-      </c>
-      <c r="P3" t="n">
-        <v>147.03767</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>3.61177</v>
-      </c>
-      <c r="R3" t="n">
-        <v>518.05687</v>
-      </c>
-      <c r="S3" t="n">
-        <v>125.03791</v>
-      </c>
-      <c r="T3" t="inlineStr"/>
-      <c r="U3" t="n">
-        <v>200.0098</v>
-      </c>
-      <c r="V3" t="n">
-        <v>9.847379999999999</v>
-      </c>
-      <c r="W3" t="n">
-        <v>15.03173</v>
-      </c>
-      <c r="X3" t="n">
-        <v>11.35551</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>467.92448</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>3094.54006</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>995.70257</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>338.18093</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>114.92046</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>21.53719</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>659.77286</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>8.676550000000001</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>361.01331</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>593.17227</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>496.07599</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>7.83857</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>319.46139</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>376.31854</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>302.26208</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>205.3208</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>0.77459</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>2002年</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>375.33375</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1402.71057</v>
-      </c>
-      <c r="D4" t="n">
-        <v>327.08811</v>
-      </c>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="n">
-        <v>249.68131</v>
-      </c>
-      <c r="G4" t="n">
-        <v>823.67708</v>
-      </c>
-      <c r="H4" t="n">
-        <v>117.58409</v>
-      </c>
-      <c r="I4" t="n">
-        <v>348.75221</v>
-      </c>
-      <c r="J4" t="n">
-        <v>187.40766</v>
-      </c>
-      <c r="K4" t="n">
-        <v>589.32514</v>
-      </c>
-      <c r="L4" t="n">
-        <v>16237.04</v>
-      </c>
-      <c r="M4" t="n">
-        <v>124.19444</v>
-      </c>
-      <c r="N4" t="n">
-        <v>238.24579</v>
-      </c>
-      <c r="O4" t="n">
-        <v>686.4088400000001</v>
-      </c>
-      <c r="P4" t="n">
-        <v>182.39491</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>4.40408</v>
-      </c>
-      <c r="R4" t="n">
-        <v>570.73496</v>
-      </c>
-      <c r="S4" t="n">
-        <v>128.44913</v>
-      </c>
-      <c r="T4" t="inlineStr"/>
-      <c r="U4" t="n">
-        <v>225.53376</v>
-      </c>
-      <c r="V4" t="n">
-        <v>7.83929</v>
-      </c>
-      <c r="W4" t="n">
-        <v>22.71672</v>
-      </c>
-      <c r="X4" t="n">
-        <v>11.7649</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>509.95834</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>3642.14548</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>1088.32872</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>418.10867</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>148.28676</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>21.9421</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>744.99816</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>12.18595</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>395.63443</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>682.13441</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>565.91233</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>8.196350000000001</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>371.49262</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>445.23673</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>324.77463</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>229.98987</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>0.89977</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
